--- a/komputronik.xlsx
+++ b/komputronik.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1 719 zł</t>
+          <t>1 519 zł</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1 399 zł</t>
+          <t>1 349 zł</t>
         </is>
       </c>
     </row>
@@ -544,60 +544,60 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
+          <t>Gainward GeForce RTX 3060 Ghost 12GB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1 469 zł</t>
+          <t>1 379 zł</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
+          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1 399 zł</t>
+          <t>1 469 zł</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
+          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1 609 zł</t>
+          <t>1 399 zł</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 3060 Dual 12GB</t>
+          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1 399 zł</t>
+          <t>1 609 zł</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 3060 Ghost 12GB</t>
+          <t>Palit GeForce RTX 3060 Dual 12GB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1 379 zł</t>
+          <t>1 399 zł</t>
         </is>
       </c>
     </row>

--- a/komputronik.xlsx
+++ b/komputronik.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,240 +424,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 EAGLE 12GB OC 2.0 LHR</t>
+          <t>PNY GeForce RTX 3060 12GB XLR8 Gaming REVEL EPIC-X RGB Single Fan</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1 519 zł</t>
+          <t>1779</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR</t>
+          <t>Palit GeForce RTX 3060 StormX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 499 zł</t>
+          <t>3699</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 12GB OC V2</t>
+          <t>PNY GeForce RTX 3060 12GB Uprising Dual Fan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1 589 zł</t>
+          <t>4749</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 TUF 12GB OC V2 LHR</t>
+          <t>PNY GeForce RTX 3060 VERTO 8GB Dual Fan Edition</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 829 zł</t>
+          <t>1459</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 8GB OC WHITE</t>
+          <t>Inno3D GeForce RTX 3060 Twin X2 8GB GDDR6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 429 zł</t>
+          <t>1679</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 WindForce 12GB OC</t>
+          <t>PNY GeForce RTX 3060 12GB XLR8 Gaming REVEL EPIC-X RGB Dual Fan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1 569 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ASUS GeForce RTX 3060 PHOENIX 12GB V2 LHR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1 349 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ASUS GeForce RTX 3060 DUAL 8GB OC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1 409 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gigabyte GeForce RTX 3060 VISION 12GB OC 2.0 LHR</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1 799 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MSI GeForce RTX 3060 VENTUS 2X 12GB OC LHR</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1 589 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Gainward GeForce RTX 3060 Ghost 12GB</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1 379 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1 469 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 399 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1 609 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Palit GeForce RTX 3060 Dual 12GB</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1 399 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge 12GB</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1 459 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Palit GeForce RTX 3060 Dual 12GB OC</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1 449 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Inno3D GeForce RTX 3060 Twin X2 OC 8GB GDDR6</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1 409 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR [oferta Outlet]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1 393,39 zł</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR [oferta Outlet]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1 393,39 zł</t>
+          <t>2049</t>
         </is>
       </c>
     </row>

--- a/komputronik.xlsx
+++ b/komputronik.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,73 +424,361 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3060 12GB XLR8 Gaming REVEL EPIC-X RGB Single Fan</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1779</t>
-        </is>
+          <t>Gigabyte GeForce RTX 3060 EAGLE 12GB OC 2.0 LHR</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 3060 StormX</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3699</t>
-        </is>
+          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3060 12GB Uprising Dual Fan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4749</t>
-        </is>
+          <t>ASUS GeForce RTX 3060 DUAL 12GB OC V2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3060 VERTO 8GB Dual Fan Edition</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1459</t>
-        </is>
+          <t>ASUS GeForce RTX 3060 TUF 12GB OC V2 LHR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3060 Twin X2 8GB GDDR6</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1679</t>
-        </is>
+          <t>ASUS GeForce RTX 3060 DUAL 8GB OC WHITE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Gigabyte GeForce RTX 3060 WindForce 12GB OC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ASUS GeForce RTX 3060 DUAL 8GB OC</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gigabyte GeForce RTX 3060 VISION 12GB OC 2.0 LHR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3060 VENTUS 2X 12GB OC LHR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gainward GeForce RTX 3060 Ghost 12GB</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ASUS GeForce RTX 3060 PHOENIX 12GB V2 LHR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Palit GeForce RTX 3060 Dual 12GB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge 12GB</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Palit GeForce RTX 3060 Dual 12GB OC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Inno3D GeForce RTX 3060 Twin X2 OC 8GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3060 GAMING X 12GB LHR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3060 VENTUS 3X 12GB OC LHR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3060 VENTUS 2X 8GB OC LHR</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3060 AERO ITX 12GB OC LHR</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ZOTAC Gaming GeForce RTX 3060 AMP White Edition 12GB</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Inno3D GeForce RTX 3060 Twin X2 OC LHR 12GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Gainward GeForce RTX 3060 Ghost 12GB OC</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Gigabyte GeForce RTX 3060 AORUS ELITE 12GB 2.0 LHR</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gainward GeForce RTX 3060 Pegasus OC 12GB</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gainward GeForce RTX 3060 Pegasus 12GB</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge 8GB</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3060 GAMING Z 12GB LHR</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PNY GeForce RTX 3060 12GB XLR8 Gaming REVEL EPIC-X RGB Single Fan</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Palit GeForce RTX 3060 StormX</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PNY GeForce RTX 3060 12GB Uprising Dual Fan</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PNY GeForce RTX 3060 VERTO 8GB Dual Fan Edition</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Inno3D GeForce RTX 3060 Twin X2 8GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>PNY GeForce RTX 3060 12GB XLR8 Gaming REVEL EPIC-X RGB Dual Fan</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2049</t>
-        </is>
+      <c r="B36" t="n">
+        <v>2049</v>
       </c>
     </row>
   </sheetData>

--- a/komputronik.xlsx
+++ b/komputronik.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 EAGLE 12GB OC 2.0 LHR</t>
+          <t>AFOX GeForce GT 210 1GB</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>13300</v>
+        <v>1700</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR</t>
+          <t>AFOX Radeon R5 220 2GB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13200</v>
+        <v>1900</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 12GB OC V2</t>
+          <t>AFOX Radeon HD 5450 1GB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14300</v>
+        <v>2000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6700 XT Pulse Gaming 12GB</t>
+          <t>AFOX GeForce GT 610 2GB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14800</v>
+        <v>2100</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 Ti TUF Gaming 8GB OC DLSS 3</t>
+          <t>ASUS GeForce GT 730 2GB DDR5 4xHDMI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21100</v>
+        <v>3200</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASUS GeForce GT 1030 2G</t>
+          <t>AFOX GeForce GT 730 4GB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 DUAL OC WHITE 8GB DLSS 3</t>
+          <t>MSI GeForce GT 1030 2GHD4 LP OC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15700</v>
+        <v>3400</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 TUF 12GB OC V2 LHR</t>
+          <t>Gigabyte GeForce GT 1030 2G Low Profile DDR4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16100</v>
+        <v>3400</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 Ti TUF Gaming OC 12GB DLSS 3</t>
+          <t>Gigabyte GeForce GT 1030 2G</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39100</v>
+        <v>3600</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 Ti DUAL 16GB OC DLSS 3</t>
+          <t>AFOX GeForce GT 1030 2GB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22800</v>
+        <v>3700</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 7600 GAMING OC 8GB</t>
+          <t>Gigabyte GeForce GT 1030 2G OC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13800</v>
+        <v>3900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GT 1030 2G OC</t>
+          <t>ASUS GeForce GT 1030 2G OC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1650 D6 4GB OC v1</t>
+          <t>Palit GeForce GTX 1650 Storm X 4GB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8600</v>
+        <v>6400</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 8GB OC WHITE</t>
+          <t>Gigabyte GeForce GTX 1650 4GB OC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12500</v>
+        <v>6600</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASUS GeForce GT 1030 2G OC</t>
+          <t>ASUS Radeon RX 6400 Phoenix 4GB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4200</v>
+        <v>6800</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7600 DUAL 8GB OC V2</t>
+          <t>ASUS GeForce GTX 1650 Phoenix 4GB GDDR6 OC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12300</v>
+        <v>7000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4070 EAGLE OC 12GB DLSS 3</t>
+          <t>ASUS GeForce GTX 1650 TUF GAMING 4GB GDDR6 OC V2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29800</v>
+        <v>7000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASUS GeForce GTX 1650 TUF GAMING 4GB GDDR6 OC V2</t>
+          <t>PNY Quadro T400 4GB DDR6 VCNT400-4GB-SB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 TUF Gaming OC 12GB DLSS 3</t>
+          <t>MSI GeForce GTX 1050 Ti GAMING 4GB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29400</v>
+        <v>7400</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6600 Challenger D 8GB GDDR6</t>
+          <t>ASRock Radeon RX 6500 XT Phantom Gaming D 4GB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 Ti ROG STRIX Gaming OC 12GB DLSS 3</t>
+          <t>PowerColor Radeon RX 6600 Fighter 8GB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45600</v>
+        <v>7900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7800 XT Phantom Gaming 16GB GDDR6</t>
+          <t>MSI Radeon RX 6500 XT MECH 2X 4G OC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25900</v>
+        <v>8100</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4070 GAMING OC 12GB DLSS 3</t>
+          <t>Gigabyte Radeon RX 6400 D6 Low Profile 4GB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31600</v>
+        <v>8200</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 6600 EAGLE 8GB</t>
+          <t>MSI GeForce GTX 1650 SUPER AERO VENTUS XS 4GB OC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9600</v>
+        <v>8300</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 DUAL OC WHITE 12GB DLSS 3</t>
+          <t>Gigabyte Radeon RX 6400 Eagle 4GB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27200</v>
+        <v>8400</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 Ti TUF Gaming 12GB DLSS 3</t>
+          <t>Gigabyte GeForce GTX 1650 4GB Low Profile</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42600</v>
+        <v>8400</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 VENTUS 2X BLACK OC 8GB DLSS 3</t>
+          <t>Gigabyte GeForce GTX 1650 D6 4GB OC v1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14200</v>
+        <v>8600</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 6600 DUAL V2 8GB</t>
+          <t>AFOX Radeon RX 550 4GB v6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 WindForce 12GB OC</t>
+          <t>ASUS Radeon RX 6600 DUAL V2 8GB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13800</v>
+        <v>8800</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 6800 XT Red Dragon 16GB</t>
+          <t>Asrock Intel Arc A580 Challenger 8GB OC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>22400</v>
+        <v>8800</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 GAMING OC 8GB DLSS 3</t>
+          <t>PNY Quadro T400 4GB DDR6 VCNT400-4GB-PB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15800</v>
+        <v>8900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Phantom Gaming OC 16GB GDDR6</t>
+          <t>AFOX GeForce GTX 750 Ti 2GB v2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>22800</v>
+        <v>8900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC WHITE DLSS 3</t>
+          <t>MSI GeForce GTX 1050 Ti AERO ITX 4GB OCV1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18400</v>
+        <v>9000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti GAMING 8GB OC DLSS 3</t>
+          <t>MSI GeForce GTX 1650 GAMING X 4GB GDDR6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>21900</v>
+        <v>9100</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7600 Hellhound 8GB GDDR6</t>
+          <t>ASUS GeForce GTX 1050 Ti 4GB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12100</v>
+        <v>9200</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Inno3D GeForce GTX 1650 Twin X2 OC V2 4GB GDDR6</t>
+          <t>PNY Quadro P620 2GB 4xDP v2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6300</v>
+        <v>9200</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4090 ROG STRIX OC EVANGELION 2 24GB DLSS 3</t>
+          <t>Gigabyte Radeon RX 6600 EAGLE 8GB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>96500</v>
+        <v>9600</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4090 SUPRIM LIQUID X 24G DLSS 3</t>
+          <t>Palit GeForce RTX 3050 StormX 8GB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>86800</v>
+        <v>9700</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Intel ARC A750 8GB Limited Edition</t>
+          <t>Gainward GeForce RTX 3050 Ghost 8GB GDDR6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10700</v>
+        <v>9700</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Asrock Intel Arc A580 Challenger 8GB OC</t>
+          <t>Gigabyte GeForce GTX 1630 4GB OC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4090 ROG STRIX Gaming 24GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 3050 Twin X2 8GB GDDR6X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>91200</v>
+        <v>10400</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4070 WINDFORCE 3 OC 12GB DLSS 3</t>
+          <t>Intel ARC A750 8GB Limited Edition</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30300</v>
+        <v>10500</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6700 XT Challenger D OC 12GB</t>
+          <t>MSI GeForce GTX 1660 SUPER VENTUS XS 6GB OC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16800</v>
+        <v>11100</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4070 Dual 12GB GDDR6X DLSS 3</t>
+          <t>Palit GeForce GTX 1660 Ti DUAL 6GB OC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>27200</v>
+        <v>11100</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4070 JetStream 12GB GDDR6X DLSS 3</t>
+          <t>ASRock Radeon RX 7600 Challenger OC 8GB GDDR6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>27200</v>
+        <v>11300</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1660 SUPER 6GB D6</t>
+          <t>PowerColor Radeon RX 7600 Fighter 8GB GDDR6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 8GB OC</t>
+          <t>Gigabyte GeForce GTX 1660 SUPER 6GB D6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12400</v>
+        <v>11500</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7900 XTX TUF GAMING 24GB OC</t>
+          <t>Sapphire Radeon RX 7600 Pulse 8GB OC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>49100</v>
+        <v>11700</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti GAMING 16GB OC DLSS 3</t>
+          <t>ASUS GeForce RTX 3060 PHOENIX 12GB V2 LHR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>23700</v>
+        <v>11800</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7800 XT Pulse 16GB GDDR6</t>
+          <t>XFX Speedster SWFT 210 Radeon RX 7600 8GB GDDR6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>24600</v>
+        <v>11900</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4080 TUF Gaming OC 16GB DLSS 3</t>
+          <t>PowerColor Radeon RX 7600 Hellhound 8GB GDDR6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>57900</v>
+        <v>12100</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4060 Dual 8GB DLSS 3</t>
+          <t>ASUS Radeon RX 7600 DUAL 8GB OC V2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13500</v>
+        <v>12300</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7700 XT Hellhound 12GB GDDR6</t>
+          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21500</v>
+        <v>12300</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4080 Gaming 16GB OC DLSS 3</t>
+          <t>ASRock Radeon RX 7600 Phantom Gaming 8GB OC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>60500</v>
+        <v>12300</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4080 VERTO Triple Fan 16GB DLSS 3</t>
+          <t>ASUS GeForce RTX 3060 DUAL 8GB OC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>50800</v>
+        <v>12400</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 AERO OC 8GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 3060 Twin X2 OC 8GB GDDR6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15900</v>
+        <v>12400</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3060 VENTUS 2X 12GB OC LHR</t>
+          <t>ASUS GeForce RTX 3060 DUAL 8GB OC WHITE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6600 Pulse 8GB GDDR6</t>
+          <t>Gigabyte GeForce GTX 1650 WINDFORCE 4GB OC v1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8800</v>
+        <v>12500</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4080 ROG STRIX Gaming OC 16GB WHITE DLSS 3</t>
+          <t>MSI Radeon RX 6650 XT MECH 2X 8GB OC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>71900</v>
+        <v>12600</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7900 XTX Pulse 24GB GDDR6 OC</t>
+          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>45600</v>
+        <v>12900</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7900 XT Pulse 20GB GDDR6 OC</t>
+          <t>Zotac GeForce RTX 4060 Solo 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>37700</v>
+        <v>13100</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 3060 Ghost 12GB</t>
+          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>12100</v>
+        <v>13200</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 Ti ROG STRIX Gaming 12GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 3060 EAGLE 12GB OC 2.0 LHR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>42100</v>
+        <v>13300</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7900 XT Nitro+ 20GB Vapor-X GDDR6 OC</t>
+          <t>PNY Quadro P1000 4GB V2 4x mDP/DP</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38600</v>
+        <v>13400</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7800 XT Challenger OC 16GB GDDR6</t>
+          <t>Palit GeForce RTX 4060 Dual 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>23700</v>
+        <v>13500</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 AORUS ELITE 8GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 4060 Twin X2 OC 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>17100</v>
+        <v>13600</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 Ti VENTUS 3X 16GB OC DLSS 3</t>
+          <t>XFX Radeon 6700 SPEEDSTER SWFT309 10GB GDDR6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>23300</v>
+        <v>13600</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti AERO 16GB OC DLSS 3</t>
+          <t>ASRock Radeon RX 7600 Steel Legend OC 8GB GDDR6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24100</v>
+        <v>13600</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 GAMING X 8GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 4060 Twin X2 OC WHITE 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>15800</v>
+        <v>13600</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7800 XT Steel Legend 16GB GDDR6</t>
+          <t>Gigabyte Radeon RX 7600 GAMING OC 8GB</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>24600</v>
+        <v>13800</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 Ti GAMING X TRIO 8GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 3060 WindForce 12GB OC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>22400</v>
+        <v>13800</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 PHOENIX 12GB V2 LHR</t>
+          <t>MSI GeForce RTX 3060 VENTUS 2X 12GB OC LHR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>11800</v>
+        <v>14000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4060 Ti Dual 8GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4060 WINDFORCE OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4080 AERO 16GB OC DLSS 3</t>
+          <t>PNY GeForce RTX 4060 XLR8 Gaming VERTO Edition 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>57000</v>
+        <v>14000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7700 XT Challenger OC 12GB GDDR6</t>
+          <t>Zotac GeForce RTX 4060 Twin Edge 8GB OC White Edition DLSS 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20700</v>
+        <v>14100</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 GAMING X SLIM 12GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>33800</v>
+        <v>14100</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4080 TUF Gaming 16GB DLSS 3</t>
+          <t>ASUS GeForce RTX 3060 DUAL 12GB OC V2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>67500</v>
+        <v>14300</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7700 XT TUF GAMING 12GB OC</t>
+          <t>MSI GeForce RTX 4060 VENTUS 2X BLACK OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23700</v>
+        <v>14500</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
+          <t>PNY Quadro P1000 4GB V2 4xmDP/DVI-SL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 ROG STRIX Gaming OC 12GB DLSS 3</t>
+          <t>ASUS GeForce RTX 4060 DUAL OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>30300</v>
+        <v>14800</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6500 XT MECH 2X 4G OC</t>
+          <t>Palit GeForce RTX 2060 StormX ITX 6G</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8100</v>
+        <v>15200</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7700 XT Fighter 12GB GDDR6</t>
+          <t>ASUS Radeon RX 7600 ROG STRIX GAMING 8GB OC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>20800</v>
+        <v>15800</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4060 Twin Edge 8GB OC White Edition DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4060 AERO OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>14100</v>
+        <v>15900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7700 XT Steel Legend 12GB GDDR6</t>
+          <t>MSI GeForce RTX 4060 GAMING X 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>21900</v>
+        <v>15900</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti AORUS ELITE 8GB DLSS 3</t>
+          <t>ASUS GeForce RTX 3060 TUF 12GB OC V2 LHR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>23300</v>
+        <v>16100</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MSI GeForce GT 1030 2GHD4 LP OC</t>
+          <t>MSI GeForce RTX 3050 VENTUS 2X 8GB LHR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3400</v>
+        <v>16100</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GT 1030 2G</t>
+          <t>Gigabyte GeForce RTX 3060 VISION 12GB OC 2.0 LHR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3600</v>
+        <v>16300</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>XFX Speedster SWFT 210 Radeon RX 7600 8GB GDDR6</t>
+          <t>ASUS Radeon RX 6750 XT DUAL 12GB OC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>11900</v>
+        <v>16700</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3060 Ti VENTUS 2X 8GB OC V1 LHR</t>
+          <t>ASRock Radeon RX 6700 XT Challenger D OC 12GB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>21500</v>
+        <v>16700</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti EAGLE 8GB OC DLSS 3</t>
+          <t>ASUS GeForce RTX 4060 ProART 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20600</v>
+        <v>16800</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ASUS GeForce GT 730 2GB DDR5 4xHDMI</t>
+          <t>PNY Quadro P1000 4GB VCQP1000BLK-1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3200</v>
+        <v>16800</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4080 Trinity 16GB GDDR6X DLSS 3</t>
+          <t>ASRock Intel Arc A770 Phantom Gaming 16GB OC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>53500</v>
+        <v>17000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4060 Ti Twin Edge 8GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4060 AORUS ELITE 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>19300</v>
+        <v>17100</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7600 ROG STRIX GAMING 8GB OC</t>
+          <t>Palit GeForce RTX 4060 Ti Dual 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>15600</v>
+        <v>18000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PNY Quadro T400 4GB DDR6 VCNT400-4GB-SB</t>
+          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC WHITE DLSS 3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>7400</v>
+        <v>18400</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7600 Challenger OC 8GB GDDR6</t>
+          <t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>11300</v>
+        <v>18800</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PNY Quadro P1000 4GB V2 4x mDP/DP</t>
+          <t>ZOTAC GeForce RTX 2060 AMP</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>13500</v>
+        <v>18900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
+          <t>Zotac GeForce RTX 4060 Ti Twin Edge 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>12300</v>
+        <v>19300</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
+          <t>Palit GeForce RTX 4060 Ti Dual 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>14100</v>
+        <v>19300</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>XFX Radeon 6700 SPEEDSTER SWFT309 10GB GDDR6</t>
+          <t>PNY Quadro T1000 8GB LP GDDR6 VCNT1000-8GB-PB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>13600</v>
+        <v>19300</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 6400 D6 Low Profile 4GB</t>
+          <t>Inno3D GeForce RTX 4060 Ti X3 OC 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8200</v>
+        <v>19700</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 16GB GDDR6X DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4060 Ti EAGLE 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>23300</v>
+        <v>20200</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GT 1030 2G Low Profile DDR4</t>
+          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3400</v>
+        <v>20200</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PNY Quadro T400 4GB DDR6 VCNT400-4GB-PB</t>
+          <t>Gigabyte GeForce RTX 4060 Ti EAGLE 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>8900</v>
+        <v>20600</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4060 Solo 8GB DLSS 3</t>
+          <t>ZOTAC GeForce GTX 1660 Dual Fansink 6GB</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13100</v>
+        <v>20600</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6650 XT MECH 2X 8GB OC</t>
+          <t>ASRock Radeon RX 7700 XT Challenger OC 12GB GDDR6</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>12600</v>
+        <v>20700</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4070 X3 OC 12GB GDDR6X DLSS 3</t>
+          <t>PowerColor Radeon RX 7700 XT Fighter 12GB GDDR6</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>30300</v>
+        <v>20800</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AFOX Radeon RX 550 4GB v6</t>
+          <t>Sapphire Radeon RX 7700 XT Pulse 12GB GDDR6</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>8600</v>
+        <v>21500</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AFOX GeForce GT 210 1GB</t>
+          <t>MSI GeForce RTX 3060 Ti VENTUS 2X 8GB OC V1 LHR</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1700</v>
+        <v>21500</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AFOX GeForce GTX 750 Ti 2GB v2</t>
+          <t>PowerColor Radeon RX 7700 XT Hellhound 12GB GDDR6</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>8900</v>
+        <v>21500</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AFOX GeForce GT 710 4GB</t>
+          <t>Gigabyte GeForce RTX 4060 Ti GAMING 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2600</v>
+        <v>21900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4060 Ti X3 OC 8GB GDDR6X DLSS 3</t>
+          <t>ASRock Radeon RX 7700 XT Steel Legend 12GB GDDR6</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>19700</v>
+        <v>21900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AFOX Radeon R5 220 2GB</t>
+          <t>PowerColor Radeon RX 6800 XT Red Dragon 16GB</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1900</v>
+        <v>22400</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AFOX Radeon HD 5450 1GB</t>
+          <t>MSI GeForce RTX 4060 Ti GAMING X TRIO 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2000</v>
+        <v>22400</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC DLSS 3</t>
+          <t>ASRock Radeon RX 6800 XT Phantom Gaming OC 16GB GDDR6</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>20200</v>
+        <v>22800</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4070 XLR8 Gaming VERTO EPIC-X RGB 12GB Triple Fan DLSS 3</t>
+          <t>ASUS GeForce RTX 3070 TUF 8GB OC V2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>27200</v>
+        <v>22800</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7600 Pulse 8GB OC</t>
+          <t>Gainward GeForce RTX 3070 Phoenix 8GB GDDR6</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>11700</v>
+        <v>22800</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PNY RTX A6000 48GB</t>
+          <t>Gigabyte GeForce RTX 4060 Ti AORUS ELITE 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>225600</v>
+        <v>23300</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4090 AORUS MASTER 24G DLSS 3</t>
+          <t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 16GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>101800</v>
+        <v>23300</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4070 Ti WINDFORCE OC 12G DLSS 3</t>
+          <t>ASRock Radeon RX 7800 XT Challenger OC 16GB GDDR6</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>39100</v>
+        <v>23700</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Gigabyte AORUS GeForce RTX 4070 Ti ELITE 12G DLSS 3</t>
+          <t>ASUS Radeon RX 7700 XT TUF GAMING 12GB OC</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>43000</v>
+        <v>23700</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 3050 StormX 8GB</t>
+          <t>Gigabyte GeForce RTX 4060 Ti GAMING 16GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9700</v>
+        <v>23700</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 Ti SUPRIM X 12G DLSS 3</t>
+          <t>Gainward GeForce RTX 4060 Ti Panther 16GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>45600</v>
+        <v>23700</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7600 Phantom Gaming 8GB OC</t>
+          <t>Gigabyte GeForce RTX 4060 Ti AERO 16GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>12300</v>
+        <v>24100</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 Ti VENTUS 2X BLACK OC 8GB DLSS 3</t>
+          <t>Sapphire Radeon RX 7800 XT Pulse 16GB GDDR6</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>19700</v>
+        <v>24600</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4060 Ti JetStream 16GB OC DLSS 3</t>
+          <t>XFX Radeon RX 7800 XT Speedster QICK 319 Core Edition 16GB GDDR6</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>22800</v>
+        <v>24600</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7900 XT Taichi OC 20GB GDDR6</t>
+          <t>AFOX Radeon RX 570 8GB - 1xDVI | 1xHDMI | 3xDP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>39900</v>
+        <v>25000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7600 Steel Legend OC 8GB GDDR6</t>
+          <t>Inno3D GeForce RTX 4070 Twin X2 OC 12GB White GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12800</v>
+        <v>26300</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PNY RTX A4000 16GB VCNRTXA4000-SB</t>
+          <t>ZOTAC GeForce RTX 3070 Twin Edge OC White Edition 8GB LHR</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>46400</v>
+        <v>26800</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 6400 Eagle 4GB</t>
+          <t>Palit GeForce RTX 4070 JetStream 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>8300</v>
+        <v>27200</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4070 Twin X2 OC 12GB White GDDR6X DLSS 3</t>
+          <t>Palit GeForce RTX 4070 Dual 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 4060 Ti Pegasus 8GB OC DLSS 3</t>
+          <t>PNY GeForce RTX 4070 XLR8 Gaming VERTO EPIC-X RGB 12GB Triple Fan DLSS 3</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>18400</v>
+        <v>27200</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4080 X3 OC 16GB GDDR6X DLSS 3</t>
+          <t>MSI GeForce RTX 4070 VENTUS 2X OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>55200</v>
+        <v>27200</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6700 XT Challenger D 12GB</t>
+          <t>AFOX Radeon RX 570 8GB v2 - 1xHDMI | 3xDP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>34700</v>
+        <v>27600</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4070 Ti GamePro 12GB OC GDDR6X DLSS 3</t>
+          <t>PowerColor Radeon RX 7800 XT Red Devil 16GB GDDR6</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>39500</v>
+        <v>28100</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ASRock Intel Arc A310 Low Profile 4GB</t>
+          <t>AFOX Radeon RX 5500 XT 8GB</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4800</v>
+        <v>28500</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PNY Quadro P1000 4GB V2 4xmDP/DVI-SL</t>
+          <t>Gigabyte GeForce RTX 4070 EAGLE OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>14700</v>
+        <v>29000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 4060 Ti Panther 16GB OC DLSS 3</t>
+          <t>ASUS GeForce RTX 4070 DUAL OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>23700</v>
+        <v>29400</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AFOX Radeon RX 570 8GB v2 - 1xHDMI | 3xDP</t>
+          <t>ASUS GeForce RTX 4070 TUF Gaming OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>27600</v>
+        <v>29400</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PNY RTX A5500 24GB</t>
+          <t>Gigabyte GeForce RTX 4070 WINDFORCE 3 OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>207100</v>
+        <v>30300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AFOX Radeon RX 5500 XT 8GB</t>
+          <t>ASUS GeForce RTX 4070 ROG STRIX Gaming OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>28500</v>
+        <v>30300</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4090 ROG MATRIX Platinum 24GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 4070 X3 OC 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>149200</v>
+        <v>30300</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4070 Ti GameRock Classic 12GB GDDR6X DLSS 3</t>
+          <t>ASUS GeForce RTX 4070 ProART OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>37700</v>
+        <v>30700</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4070 Ti XLR8 Gaming Verto 12GB OC DLSS 3</t>
+          <t>ASUS GeForce RTX 4070 DUAL WHITE 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>37700</v>
+        <v>30700</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4090 Trinity 24GB OC White Edition DLSS 3</t>
+          <t>Gainward GeForce RTX 3060 Pegasus OC 12GB</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>77200</v>
+        <v>32500</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 VENTUS 3X E OC 12GB DLSS 3</t>
+          <t>MSI GeForce RTX 4070 GAMING X SLIM 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>29800</v>
+        <v>33800</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3060 GAMING X 12GB LHR</t>
+          <t>Sapphire Radeon RX 6800 Gaming 16GB GDDR6</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>14600</v>
+        <v>33800</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 6700 XT Red Devil 12GB OC</t>
+          <t>ASRock Radeon RX 6700 XT Challenger D 12GB</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>14900</v>
+        <v>34700</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 Ti VENTUS 3X 12G OC DLSS 3</t>
+          <t>Sapphire Radeon RX 7900 XT Pulse 20GB GDDR6 OC</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>39500</v>
+        <v>36900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4080 16GB VENTUS 3X OC DLSS 3</t>
+          <t>Zotac GeForce RTX 4070 Ti Trinity 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>54400</v>
+        <v>37300</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7900 XTX Taichi White OC 24GB GDDR6</t>
+          <t>PNY GeForce RTX 4070 Ti XLR8 Gaming Verto 12GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49100</v>
+        <v>37700</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 6750 XT GAMING 12GB OC</t>
+          <t>Sapphire Radeon RX 7900 XT Nitro+ 20GB Vapor-X GDDR6 OC</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>19700</v>
+        <v>38600</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3050 EAGLE 8GB OC LHR</t>
+          <t>Palit GeForce RTX 4070 Ti GameRock 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>11300</v>
+        <v>38600</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4080 ROG STRIX Gaming 16GB DLSS 3</t>
+          <t>XFX Speedster SWFT 319 Radeon RX 6900 XT Core 16GB</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>67500</v>
+        <v>38600</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800 XT Pulse Gaming OC 16GB GDDR6</t>
+          <t>MSI GeForce RTX 4070 Ti GAMING X SLIM 12G DLSS 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>25900</v>
+        <v>39500</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3090 TUF Gaming 24GB OC</t>
+          <t>ASRock Radeon RX 7900 XT Taichi OC 20GB GDDR6</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>64000</v>
+        <v>39900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3060 Ti GAMING X 8GB OC LHR</t>
+          <t>Palit GeForce RTX 4070 Ti GamePro 12GB OC GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>23300</v>
+        <v>39900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4080 ProART 16GB DLSS 3</t>
+          <t>ASUS GeForce RTX 4070 Ti ROG STRIX Gaming 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>62300</v>
+        <v>42100</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6750 XT Challenger Pro OC 12GB GDDR6</t>
+          <t>ASUS GeForce RTX 4070 Ti TUF Gaming 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18000</v>
+        <v>42600</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 2060 XLR8 6G</t>
+          <t>Gigabyte AORUS GeForce RTX 4070 Ti ELITE 12G DLSS 3</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>13900</v>
+        <v>43000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4080 XLR8 Gaming VERTO EPIC-X 16GB DLSS 3 OC</t>
+          <t>ASUS GeForce RTX 4070 Ti ROG STRIX Gaming OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>53500</v>
+        <v>45600</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Palit GeForce GTX 1650 DUAL 4GB GDDR5</t>
+          <t>Sapphire Radeon RX 7900 XTX Pulse 24GB GDDR6 OC</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>6300</v>
+        <v>45600</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PNY Quadro P1000 4GB VCQP1000DVI-PB</t>
+          <t>MSI GeForce RTX 4070 Ti SUPRIM X 12G DLSS 3</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>15400</v>
+        <v>45600</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 6700 XT EAGLE 12GB</t>
+          <t>Gigabyte GeForce RTX 3080 EAGLE 2.0 10G LHR</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>21100</v>
+        <v>45600</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4080 AORUS Xtreme Waterforce 16GB DLSS 3</t>
+          <t>XFX Radeon RX 6800 Speedster QICK319 16GB</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>69300</v>
+        <v>45600</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 Ti VENTUS 3X 12G DLSS 3</t>
+          <t>Sapphire Radeon RX 7900 XTX Nitro+ 24GB GDDR6 OC</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>39900</v>
+        <v>48200</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>XFX Speedster MERC 319 Radeon RX 6900 XT Ultra 16GB</t>
+          <t>ASUS Radeon RX 7900 XTX TUF GAMING 24GB OC</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>93900</v>
+        <v>49100</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PNY GeForce GTX 1660 Super Single Fan 6G</t>
+          <t>ASRock Radeon RX 7900 XTX Taichi White OC 24GB GDDR6</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>22400</v>
+        <v>49100</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800 XT Gaming 16GB GDDR6</t>
+          <t>PowerColor Radeon 6800 Red Dragon 16GB</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>39500</v>
+        <v>50000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3050 8GB VERTO Dual Fan</t>
+          <t>PNY GeForce RTX 4080 VERTO Triple Fan 16GB DLSS 3</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4323,7 +4323,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>12400</v>
+        <v>50800</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3060 GAMING Z 12GB LHR</t>
+          <t>Zotac GeForce RTX 4080 Trinity 16GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>15900</v>
+        <v>53500</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4060 Ti XLR8 Gaming VERTO Edition 16GB DLSS 3</t>
+          <t>Palit GeForce RTX 4080 GameRock 16GB DLSS 3</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>24100</v>
+        <v>53900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3070 Twin X2 OC LHR 8GB GDDR6</t>
+          <t>MSI GeForce RTX 4080 16GB GAMING X SLIM DLSS 3</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>24100</v>
+        <v>59600</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3060 12GB XLR8 Gaming REVEL EPIC-X RGB Single Fan</t>
+          <t>PowerColor Radeon RX 6950 XT Red Devil 16GB</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>15600</v>
+        <v>59600</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 3070 GamingPro OC</t>
+          <t>Gigabyte GeForce RTX 4080 Gaming 16GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>25000</v>
+        <v>60500</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>XFX Speedster SWFT 319 Radeon RX 6900 XT Core 16GB</t>
+          <t>ASUS GeForce RTX 4080 ROG STRIX Gaming OC 16GB DLSS 3</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>38600</v>
+        <v>63100</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 2060 Phoenix GS 6GB</t>
+          <t>Gigabyte GeForce RTX 3090 AORUS MASTER 24G 2.0</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>16400</v>
+        <v>65800</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 6700 XT Hellhound 12GB</t>
+          <t>ASUS GeForce RTX 4080 TUF Gaming 16GB DLSS 3</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>19300</v>
+        <v>67500</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ASUS GeForce GTX 1650 Phoenix 4GB GDDR6 OC</t>
+          <t>Gigabyte GeForce RTX 3090 AORUS XTREME WATERFORCE 24G</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>8200</v>
+        <v>67500</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 2060 Twin Fan 12GB</t>
+          <t>ASUS GeForce RTX 4080 ROG STRIX Gaming OC 16GB WHITE DLSS 3</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>19700</v>
+        <v>71900</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3070 8GB XLR8 Gaming REVEL EPIC-X RGB Triple Fan Edition</t>
+          <t>ASUS GeForce RTX 4090 ROG STRIX Gaming 24GB DLSS 3</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>50800</v>
+        <v>91200</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AFOX GeForce GT 730 4GB</t>
+          <t>ASUS GeForce RTX 4090 ROG STRIX Gaming OC 24GB DLSS 3</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3200</v>
+        <v>93000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 2060 StormX OC ITX 6G</t>
+          <t>ASUS GeForce RTX 4090 ROG STRIX OC EVANGELION 2 24GB DLSS 3</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>15400</v>
+        <v>96500</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ASUS GeForce GTX 1650 Low Profile 4GB OC</t>
+          <t>Gigabyte GeForce RTX 4090 AORUS MASTER 24G DLSS 3</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>8500</v>
+        <v>101800</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>XFX Radeon 6700 XT SPEEDSTER QICK 319 12GB</t>
+          <t>Gigabyte GeForce RTX 4090 AORUS XTREME WATERFORCE 24G DLSS 3</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>48200</v>
+        <v>102600</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PowerColor Radeon 6900 XT Liquid Devil Ultimate 16GB</t>
+          <t>PNY RTX A4500 20GB VCNRTXA4500-PB</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>40800</v>
+        <v>108800</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MSI GeForce GTX 1650 SUPER AERO VENTUS XS 4GB OC</t>
+          <t>Sapphire Radeon RX 6900 XT Toxic Gaming OC 16GB GDDR6</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>8300</v>
+        <v>122000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1650 MINI ITX 4GB OC</t>
+          <t>PNY RTX A5500 24GB</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>6900</v>
+        <v>208900</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3070 Gaming Twin Edge 8GB</t>
+          <t>PNY RTX A6000 48GB</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4760,78 +4760,9 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>27200</v>
+        <v>225600</v>
       </c>
       <c r="E189" t="inlineStr">
-        <is>
-          <t>грн.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>190</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>ZOTAC GeForce GT 1030 LP 2GB</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>3200</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>грн.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>191</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>PNY GeForce RTX 3060 12GB XLR8 Gaming REVEL EPIC-X RGB Dual Fan</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>грн.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>192</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>PNY Quadro P400 2GB bulk</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E192" t="inlineStr">
         <is>
           <t>грн.</t>
         </is>

--- a/komputronik.xlsx
+++ b/komputronik.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AFOX Radeon R5 220 2GB</t>
+          <t>Palit GeForce GT 710 2GB DDR3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AFOX Radeon HD 5450 1GB</t>
+          <t>AFOX Radeon R5 220 2GB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AFOX GeForce GT 610 2GB</t>
+          <t>AFOX Radeon HD 5450 1GB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASUS GeForce GT 730 2GB DDR5 4xHDMI</t>
+          <t>AFOX GeForce GT 610 2GB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AFOX GeForce GT 730 4GB</t>
+          <t>ASUS GeForce GT 730 2GB DDR5 4xHDMI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MSI GeForce GT 1030 2GHD4 LP OC</t>
+          <t>AFOX GeForce GT 730 4GB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GT 1030 2G Low Profile DDR4</t>
+          <t>MSI GeForce GT 1030 2GHD4 LP OC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GT 1030 2G</t>
+          <t>Gigabyte GeForce GT 1030 2G Low Profile DDR4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AFOX GeForce GT 1030 2GB</t>
+          <t>Gigabyte GeForce GT 1030 2G</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GT 1030 2G OC</t>
+          <t>AFOX GeForce GT 1030 2GB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ASUS GeForce GT 1030 2G OC</t>
+          <t>Gigabyte GeForce GT 1030 2G OC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Palit GeForce GTX 1650 Storm X 4GB</t>
+          <t>ZOTAC GeForce GT 730 ZONE Edition Low Profile 4GB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6400</v>
+        <v>3900</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1650 4GB OC</t>
+          <t>ASUS GeForce GT 1030 2G</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 6400 Phoenix 4GB</t>
+          <t>ASUS GeForce GT 1030 2G OC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6800</v>
+        <v>4200</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASUS GeForce GTX 1650 Phoenix 4GB GDDR6 OC</t>
+          <t>ASRock Intel Arc A310 Low Profile 4GB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7000</v>
+        <v>4900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASUS GeForce GTX 1650 TUF GAMING 4GB GDDR6 OC V2</t>
+          <t>Gigabyte GeForce GTX 1650 4GB OC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PNY Quadro T400 4GB DDR6 VCNT400-4GB-SB</t>
+          <t>ASUS Radeon RX 6400 Phoenix 4GB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7400</v>
+        <v>6800</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MSI GeForce GTX 1050 Ti GAMING 4GB</t>
+          <t>ASUS GeForce GTX 1650 TUF GAMING 4GB GDDR6 OC V2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6500 XT Phantom Gaming D 4GB</t>
+          <t>PNY Quadro T400 4GB DDR6 VCNT400-4GB-SB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 6600 Fighter 8GB</t>
+          <t>MSI GeForce GTX 1050 Ti GAMING 4GB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6500 XT MECH 2X 4G OC</t>
+          <t>ASRock Radeon RX 6500 XT Phantom Gaming D 4GB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 6400 D6 Low Profile 4GB</t>
+          <t>PowerColor Radeon RX 6600 Fighter 8GB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MSI GeForce GTX 1650 SUPER AERO VENTUS XS 4GB OC</t>
+          <t>MSI Radeon RX 6500 XT MECH 2X 4G OC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 6400 Eagle 4GB</t>
+          <t>Gigabyte Radeon RX 6400 D6 Low Profile 4GB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1650 4GB Low Profile</t>
+          <t>MSI GeForce GTX 1650 SUPER AERO VENTUS XS 4GB OC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1650 D6 4GB OC v1</t>
+          <t>Gigabyte GeForce GTX 1650 4GB Low Profile</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 3050 Ghost 8GB GDDR6</t>
+          <t>Gigabyte GeForce GTX 1630 4GB OC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1630 4GB OC</t>
+          <t>Inno3D GeForce RTX 3050 Twin X2 8GB GDDR6X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9800</v>
+        <v>10400</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3050 Twin X2 8GB GDDR6X</t>
+          <t>Intel ARC A750 8GB Limited Edition</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Intel ARC A750 8GB Limited Edition</t>
+          <t>Palit GeForce GTX 1660 Ti DUAL 6GB OC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10500</v>
+        <v>11100</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MSI GeForce GTX 1660 SUPER VENTUS XS 6GB OC</t>
+          <t>ASRock Radeon RX 7600 Challenger OC 8GB GDDR6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Palit GeForce GTX 1660 Ti DUAL 6GB OC</t>
+          <t>PowerColor Radeon RX 7600 Fighter 8GB GDDR6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7600 Challenger OC 8GB GDDR6</t>
+          <t>Gigabyte GeForce GTX 1660 SUPER 6GB D6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7600 Fighter 8GB GDDR6</t>
+          <t>Sapphire Radeon RX 7600 Pulse 8GB OC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1660 SUPER 6GB D6</t>
+          <t>ASUS GeForce RTX 3060 PHOENIX 12GB V2 LHR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7600 Pulse 8GB OC</t>
+          <t>ZOTAC GeForce RTX 3050 AMP 8GB GDDR6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 PHOENIX 12GB V2 LHR</t>
+          <t>XFX Speedster SWFT 210 Radeon RX 7600 8GB GDDR6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>XFX Speedster SWFT 210 Radeon RX 7600 8GB GDDR6</t>
+          <t>PowerColor Radeon RX 7600 Hellhound 8GB GDDR6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7600 Hellhound 8GB GDDR6</t>
+          <t>ASUS Radeon RX 7600 DUAL 8GB OC V2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7600 DUAL 8GB OC V2</t>
+          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3060 Twin X2 LHR 12GB GDDR6</t>
+          <t>Palit GeForce RTX 3060 Dual 12GB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7600 Phantom Gaming 8GB OC</t>
+          <t>ASUS GeForce RTX 3060 DUAL 8GB OC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 8GB OC</t>
+          <t>Inno3D GeForce RTX 3060 Twin X2 OC 8GB GDDR6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 3060 Twin X2 OC 8GB GDDR6</t>
+          <t>ASUS GeForce RTX 3060 DUAL 8GB OC WHITE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 8GB OC WHITE</t>
+          <t>Gigabyte GeForce GTX 1650 WINDFORCE 4GB OC v1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce GTX 1650 WINDFORCE 4GB OC v1</t>
+          <t>MSI Radeon RX 6650 XT MECH 2X 8GB OC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6650 XT MECH 2X 8GB OC</t>
+          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZOTAC Gaming GeForce RTX 3060 Twin Edge OC 12GB</t>
+          <t>Zotac GeForce RTX 4060 Solo 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4060 Solo 8GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 12GB OC 2.0 LHR</t>
+          <t>Gigabyte GeForce RTX 3060 EAGLE 12GB OC 2.0 LHR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 EAGLE 12GB OC 2.0 LHR</t>
+          <t>PNY Quadro P1000 4GB V2 4x mDP/DP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PNY Quadro P1000 4GB V2 4x mDP/DP</t>
+          <t>Palit GeForce RTX 4060 Dual 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4060 Dual 8GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 4060 Twin X2 OC 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4060 Twin X2 OC 8GB GDDR6X DLSS 3</t>
+          <t>XFX Radeon 6700 SPEEDSTER SWFT309 10GB GDDR6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XFX Radeon 6700 SPEEDSTER SWFT309 10GB GDDR6</t>
+          <t>ASRock Radeon RX 7600 Steel Legend OC 8GB GDDR6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7600 Steel Legend OC 8GB GDDR6</t>
+          <t>Inno3D GeForce RTX 4060 Twin X2 OC WHITE 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4060 Twin X2 OC WHITE 8GB GDDR6X DLSS 3</t>
+          <t>Gigabyte Radeon RX 7600 GAMING OC 8GB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gigabyte Radeon RX 7600 GAMING OC 8GB</t>
+          <t>Gigabyte GeForce RTX 3060 WindForce 12GB OC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 WindForce 12GB OC</t>
+          <t>MSI GeForce RTX 3060 VENTUS 2X 12GB OC LHR</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3060 VENTUS 2X 12GB OC LHR</t>
+          <t>Gigabyte GeForce RTX 4060 WINDFORCE OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 WINDFORCE OC 8GB DLSS 3</t>
+          <t>Zotac GeForce RTX 4060 Twin Edge 8GB OC White Edition DLSS 3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4060 XLR8 Gaming VERTO Edition 8GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4060 Twin Edge 8GB OC White Edition DLSS 3</t>
+          <t>ASUS GeForce RTX 3060 DUAL 12GB OC V2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3060 Gaming 8GB OC</t>
+          <t>MSI GeForce RTX 4060 VENTUS 2X BLACK OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 DUAL 12GB OC V2</t>
+          <t>PNY Quadro P1000 4GB V2 4xmDP/DVI-SL</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 VENTUS 2X BLACK OC 8GB DLSS 3</t>
+          <t>ASUS GeForce RTX 4060 DUAL OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PNY Quadro P1000 4GB V2 4xmDP/DVI-SL</t>
+          <t>Sapphire Radeon RX 6700 XT Pulse Gaming 12GB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 DUAL OC 8GB DLSS 3</t>
+          <t>Palit GeForce RTX 2060 StormX ITX 6G</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 2060 StormX ITX 6G</t>
+          <t>Gainward GeForce RTX 3060 Ghost 12GB OC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7600 ROG STRIX GAMING 8GB OC</t>
+          <t>ASUS GeForce RTX 4060 DUAL OC WHITE 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 AERO OC 8GB DLSS 3</t>
+          <t>ASUS Radeon RX 7600 ROG STRIX GAMING 8GB OC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 GAMING X 8GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4060 AERO OC 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3060 TUF 12GB OC V2 LHR</t>
+          <t>MSI GeForce RTX 4060 GAMING X 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PNY Quadro P1000 4GB VCQP1000BLK-1</t>
+          <t>Gigabyte GeForce RTX 3060 Ti GAMING 8GB OC GDDR6X</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ASRock Intel Arc A770 Phantom Gaming 16GB OC</t>
+          <t>PNY Quadro P1000 4GB VCQP1000BLK-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 AORUS ELITE 8GB DLSS 3</t>
+          <t>ASRock Intel Arc A770 Phantom Gaming 16GB OC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4060 Ti Dual 8GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4060 AORUS ELITE 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>18000</v>
+        <v>17100</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC WHITE DLSS 3</t>
+          <t>Palit GeForce RTX 4060 Ti Dual 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 8GB GDDR6X DLSS 3</t>
+          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC WHITE DLSS 3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 2060 AMP</t>
+          <t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4060 Ti Twin Edge 8GB DLSS 3</t>
+          <t>ZOTAC GeForce RTX 2060 AMP</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>19300</v>
+        <v>18900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4060 Ti Dual 8GB OC DLSS 3</t>
+          <t>Zotac GeForce RTX 4060 Ti Twin Edge 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PNY Quadro T1000 8GB LP GDDR6 VCNT1000-8GB-PB</t>
+          <t>Palit GeForce RTX 4060 Ti Dual 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4060 Ti X3 OC 8GB GDDR6X DLSS 3</t>
+          <t>PNY Quadro T1000 8GB LP GDDR6 VCNT1000-8GB-PB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>19700</v>
+        <v>19300</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti EAGLE 8GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 4060 Ti X3 OC 8GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC DLSS 3</t>
+          <t>Gigabyte Radeon RX 6750 XT GAMING 12GB OC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti EAGLE 8GB OC DLSS 3</t>
+          <t>ASUS GeForce RTX 4060 Ti DUAL 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>20600</v>
+        <v>20200</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce GTX 1660 Dual Fansink 6GB</t>
+          <t>Gigabyte GeForce RTX 4060 Ti EAGLE 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7700 XT Challenger OC 12GB GDDR6</t>
+          <t>ZOTAC GeForce GTX 1660 Dual Fansink 6GB</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7700 XT Fighter 12GB GDDR6</t>
+          <t>ASRock Radeon RX 7700 XT Challenger OC 12GB GDDR6</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7700 XT Pulse 12GB GDDR6</t>
+          <t>PowerColor Radeon RX 7700 XT Fighter 12GB GDDR6</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3060 Ti VENTUS 2X 8GB OC V1 LHR</t>
+          <t>ASUS GeForce RTX 4060 Ti TUF Gaming 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7700 XT Hellhound 12GB GDDR6</t>
+          <t>Sapphire Radeon RX 7700 XT Pulse 12GB GDDR6</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti GAMING 8GB OC DLSS 3</t>
+          <t>MSI GeForce RTX 3060 Ti VENTUS 2X 8GB OC V1 LHR</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>21900</v>
+        <v>21500</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7700 XT Steel Legend 12GB GDDR6</t>
+          <t>PowerColor Radeon RX 7700 XT Hellhound 12GB GDDR6</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>21900</v>
+        <v>21500</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 6800 XT Red Dragon 16GB</t>
+          <t>Gigabyte GeForce RTX 4060 Ti GAMING 8GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4060 Ti GAMING X TRIO 8GB DLSS 3</t>
+          <t>ASRock Radeon RX 7700 XT Steel Legend 12GB GDDR6</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 XT Phantom Gaming OC 16GB GDDR6</t>
+          <t>Gigabyte Radeon RX 6750 XT AORUS ELITE 12GB</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>22800</v>
+        <v>21900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3070 TUF 8GB OC V2</t>
+          <t>PowerColor Radeon RX 6800 XT Red Dragon 16GB</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 3070 Phoenix 8GB GDDR6</t>
+          <t>MSI GeForce RTX 4060 Ti GAMING X TRIO 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti AORUS ELITE 8GB DLSS 3</t>
+          <t>ASUS GeForce RTX 4060 Ti DUAL 16GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 16GB GDDR6X DLSS 3</t>
+          <t>ASRock Radeon RX 6800 XT Phantom Gaming OC 16GB GDDR6</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7800 XT Challenger OC 16GB GDDR6</t>
+          <t>Gainward GeForce RTX 3070 Phoenix 8GB GDDR6</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>23700</v>
+        <v>22800</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7700 XT TUF GAMING 12GB OC</t>
+          <t>Gigabyte GeForce RTX 4060 Ti AORUS ELITE 8GB DLSS 3</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>23700</v>
+        <v>23300</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti GAMING 16GB OC DLSS 3</t>
+          <t>Inno3D GeForce RTX 4060 Ti Twin X2 OC 16GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>23700</v>
+        <v>23300</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Gainward GeForce RTX 4060 Ti Panther 16GB OC DLSS 3</t>
+          <t>ASRock Radeon RX 7800 XT Challenger OC 16GB GDDR6</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4060 Ti AERO 16GB OC DLSS 3</t>
+          <t>ASUS Radeon RX 7700 XT TUF GAMING 12GB OC</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>24100</v>
+        <v>23700</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7800 XT Pulse 16GB GDDR6</t>
+          <t>Gainward GeForce RTX 4060 Ti Panther 16GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>24600</v>
+        <v>23700</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>XFX Radeon RX 7800 XT Speedster QICK 319 Core Edition 16GB GDDR6</t>
+          <t>Gigabyte GeForce RTX 4060 Ti AERO 16GB OC DLSS 3</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>24600</v>
+        <v>24100</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AFOX Radeon RX 570 8GB - 1xDVI | 1xHDMI | 3xDP</t>
+          <t>Sapphire Radeon RX 7800 XT Pulse 16GB GDDR6</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>25000</v>
+        <v>24600</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4070 Twin X2 OC 12GB White GDDR6X DLSS 3</t>
+          <t>XFX Radeon RX 7800 XT Speedster QICK 319 Core Edition 16GB GDDR6</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>26300</v>
+        <v>24600</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3070 Twin Edge OC White Edition 8GB LHR</t>
+          <t>AFOX Radeon RX 570 8GB - 1xDVI | 1xHDMI | 3xDP</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>26800</v>
+        <v>25000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4070 JetStream 12GB GDDR6X DLSS 3</t>
+          <t>Inno3D GeForce RTX 4070 Twin X2 OC 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4070 Dual 12GB GDDR6X DLSS 3</t>
+          <t>Inno3D GeForce RTX 4070 Twin X2 OC 12GB White GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>27200</v>
+        <v>26300</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4070 XLR8 Gaming VERTO EPIC-X RGB 12GB Triple Fan DLSS 3</t>
+          <t>Palit GeForce RTX 4070 JetStream 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 VENTUS 2X OC 12GB DLSS 3</t>
+          <t>Palit GeForce RTX 4070 Dual 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AFOX Radeon RX 570 8GB v2 - 1xHDMI | 3xDP</t>
+          <t>PNY GeForce RTX 4070 XLR8 Gaming VERTO EPIC-X RGB 12GB Triple Fan DLSS 3</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>27600</v>
+        <v>27200</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PowerColor Radeon RX 7800 XT Red Devil 16GB GDDR6</t>
+          <t>AFOX Radeon RX 570 8GB v2 - 1xHDMI | 3xDP</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>28100</v>
+        <v>27600</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AFOX Radeon RX 5500 XT 8GB</t>
+          <t>PowerColor Radeon RX 7800 XT Red Devil 16GB GDDR6</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4070 EAGLE OC 12GB DLSS 3</t>
+          <t>AFOX Radeon RX 5500 XT 8GB</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>29000</v>
+        <v>28500</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 DUAL OC 12GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4070 EAGLE OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4070 WINDFORCE 3 OC 12GB DLSS 3</t>
+          <t>ASUS GeForce RTX 4070 ROG STRIX Gaming OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 ROG STRIX Gaming OC 12GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 4070 X3 OC 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Inno3D GeForce RTX 4070 X3 OC 12GB GDDR6X DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4070 WINDFORCE 3 OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4070 Ti Trinity 12GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4070 Ti WINDFORCE OC 12G DLSS 3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4070 Ti XLR8 Gaming Verto 12GB OC DLSS 3</t>
+          <t>Palit GeForce RTX 4070 Ti GameRock Classic 12GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>37700</v>
+        <v>38200</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 Ti GAMING X SLIM 12G DLSS 3</t>
+          <t>MSI GeForce RTX 4070 Ti VENTUS 3X 12G OC DLSS 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7900 XT Taichi OC 20GB GDDR6</t>
+          <t>Gigabyte GeForce RTX 4070 Ti GAMING OC 12G DLSS 3</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Gigabyte AORUS GeForce RTX 4070 Ti ELITE 12G DLSS 3</t>
+          <t>ASUS GeForce RTX 4070 Ti ROG STRIX Gaming OC 12GB DLSS 3</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>43000</v>
+        <v>45600</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4070 Ti ROG STRIX Gaming OC 12GB DLSS 3</t>
+          <t>Sapphire Radeon RX 7900 XTX Pulse 24GB GDDR6 OC</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7900 XTX Pulse 24GB GDDR6 OC</t>
+          <t>MSI GeForce RTX 4070 Ti SUPRIM X 12G DLSS 3</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 4070 Ti SUPRIM X 12G DLSS 3</t>
+          <t>Gigabyte GeForce RTX 3080 EAGLE 2.0 10G LHR</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3080 EAGLE 2.0 10G LHR</t>
+          <t>XFX Radeon RX 6800 Speedster QICK319 16GB</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>XFX Radeon RX 6800 Speedster QICK319 16GB</t>
+          <t>Sapphire Radeon RX 7900 XTX Nitro+ 24GB GDDR6 OC</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>45600</v>
+        <v>48200</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 7900 XTX Nitro+ 24GB GDDR6 OC</t>
+          <t>ASUS Radeon RX 7900 XTX TUF GAMING 24GB OC</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>48200</v>
+        <v>49100</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ASUS Radeon RX 7900 XTX TUF GAMING 24GB OC</t>
+          <t>ASRock Radeon RX 7900 XTX Taichi White OC 24GB GDDR6</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 7900 XTX Taichi White OC 24GB GDDR6</t>
+          <t>PowerColor Radeon 6800 Red Dragon 16GB</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>49100</v>
+        <v>50000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PowerColor Radeon 6800 Red Dragon 16GB</t>
+          <t>PNY GeForce RTX 4080 VERTO Triple Fan 16GB DLSS 3</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>50000</v>
+        <v>50800</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 4080 VERTO Triple Fan 16GB DLSS 3</t>
+          <t>Zotac GeForce RTX 4080 Trinity 16GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4323,7 +4323,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>50800</v>
+        <v>53500</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Zotac GeForce RTX 4080 Trinity 16GB GDDR6X DLSS 3</t>
+          <t>Palit GeForce RTX 4080 GameRock 16GB DLSS 3</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Palit GeForce RTX 4080 GameRock 16GB DLSS 3</t>
+          <t>Inno3D GeForce RTX 4080 X3 OC 16GB GDDR6X DLSS 3</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>53900</v>
+        <v>55200</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 3090 AORUS XTREME WATERFORCE 24G</t>
+          <t>ASUS GeForce RTX 4080 ROG STRIX Gaming 16GB DLSS 3</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4080 ROG STRIX Gaming OC 16GB WHITE DLSS 3</t>
+          <t>Gigabyte GeForce RTX 3090 AORUS XTREME WATERFORCE 24G</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>71900</v>
+        <v>67500</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4090 ROG STRIX Gaming 24GB DLSS 3</t>
+          <t>ASUS GeForce RTX 4080 ROG STRIX Gaming OC 16GB WHITE DLSS 3</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>91200</v>
+        <v>71900</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4090 ROG STRIX Gaming OC 24GB DLSS 3</t>
+          <t>Zotac GeForce RTX 4090 Trinity 24GB OC White Edition DLSS 3</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>93000</v>
+        <v>77200</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 4090 ROG STRIX OC EVANGELION 2 24GB DLSS 3</t>
+          <t>Gigabyte GeForce RTX 4090 GAMING OC 24G DLSS 3</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>96500</v>
+        <v>88600</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4090 AORUS MASTER 24G DLSS 3</t>
+          <t>ASUS GeForce RTX 4090 ROG STRIX Gaming 24GB DLSS 3</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>101800</v>
+        <v>91200</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Gigabyte GeForce RTX 4090 AORUS XTREME WATERFORCE 24G DLSS 3</t>
+          <t>ASUS GeForce RTX 4090 ROG STRIX OC EVANGELION 2 24GB DLSS 3</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>102600</v>
+        <v>96500</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PNY RTX A4500 20GB VCNRTXA4500-PB</t>
+          <t>Gigabyte GeForce RTX 4090 AORUS XTREME WATERFORCE 24G DLSS 3</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>108800</v>
+        <v>102600</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6900 XT Toxic Gaming OC 16GB GDDR6</t>
+          <t>PNY RTX A4500 20GB VCNRTXA4500-PB</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>122000</v>
+        <v>108800</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PNY RTX A5500 24GB</t>
+          <t>Sapphire Radeon RX 6900 XT Toxic Gaming OC 16GB GDDR6</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>208900</v>
+        <v>122000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4751,18 +4751,64 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>ASUS GeForce RTX 4090 ROG MATRIX Platinum 24GB DLSS 3</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>149200</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>грн.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>190</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>PNY RTX A5500 24GB</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>208900</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>грн.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>191</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>PNY RTX A6000 48GB</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
         <v>225600</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>грн.</t>
         </is>
